--- a/address.xlsx
+++ b/address.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Oklahoma</t>
   </si>
@@ -24,16 +24,16 @@
     <t>Alaska</t>
   </si>
   <si>
-    <t>Komandarma Korka str.50</t>
-  </si>
-  <si>
     <t>+380967899087</t>
   </si>
   <si>
     <t>76897</t>
   </si>
   <si>
-    <t>Komandarma Korka</t>
+    <t>Lesi Serduka</t>
+  </si>
+  <si>
+    <t>Lesi Serduka str.50</t>
   </si>
 </sst>
 </file>
@@ -377,9 +377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -392,7 +390,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -401,13 +399,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -424,11 +422,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="F1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -436,9 +432,12 @@
     <col min="6" max="6" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:6">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -449,11 +448,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="F1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -461,9 +458,12 @@
     <col min="6" max="6" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:6">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
